--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H2">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>6.562831547050499</v>
+        <v>19.789872080868</v>
       </c>
       <c r="R2">
-        <v>26.251326188202</v>
+        <v>79.159488323472</v>
       </c>
       <c r="S2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="T2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H3">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>36.57931779389866</v>
+        <v>106.857506609664</v>
       </c>
       <c r="R3">
-        <v>219.475906763392</v>
+        <v>641.1450396579839</v>
       </c>
       <c r="S3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="T3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H4">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.5996208647935</v>
+        <v>0.553538291532</v>
       </c>
       <c r="R4">
-        <v>3.597725188761</v>
+        <v>3.321229749192</v>
       </c>
       <c r="S4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="T4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H5">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>27.76318339481275</v>
+        <v>39.119784378372</v>
       </c>
       <c r="R5">
-        <v>111.052733579251</v>
+        <v>156.479137513488</v>
       </c>
       <c r="S5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="T5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H6">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>4.207339181064667</v>
+        <v>1.092311342652</v>
       </c>
       <c r="R6">
-        <v>25.244035086388</v>
+        <v>6.553868055912001</v>
       </c>
       <c r="S6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="T6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H7">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.9386033019913332</v>
+        <v>1.095541139904</v>
       </c>
       <c r="R7">
-        <v>5.631619811947999</v>
+        <v>6.573246839424</v>
       </c>
       <c r="S7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="T7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
     </row>
   </sheetData>
